--- a/Real estate shock and recovery.xlsx
+++ b/Real estate shock and recovery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e6a9da4622382dea/Documents/Linkedin data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="11_D5785CCA1F76A3404AE2478EC7A2561FBF061CBE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85097A5B-91E5-4337-918A-0C2286E178F2}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_D5785CCA1F76A3404AE2478EC7A2561FBF061CBE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD8E982-77B5-4FD2-ABFA-F2967DFBD44F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="739" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -637,13 +637,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3791,7 +3791,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DFA57F9-384F-4090-9288-150BCBA86268}" type="CELLRANGE">
+                    <a:fld id="{B2235E51-526B-482A-95EC-60465D30B5C1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3824,7 +3824,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{763AF7E7-2272-4E1C-83F0-CCC232781BF2}" type="CELLRANGE">
+                    <a:fld id="{A739B3E5-B2E2-4734-A669-C1626F77324F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3857,7 +3857,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBB14BBF-D7E5-4021-9F74-1F150F72098A}" type="CELLRANGE">
+                    <a:fld id="{0238503E-9577-4B20-B72F-D79280DED67E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3890,7 +3890,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58347A17-670C-4168-9015-CCD2144401E5}" type="CELLRANGE">
+                    <a:fld id="{1EA9AC20-6A6A-496D-AFBA-003A8A180640}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3929,7 +3929,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE023DE3-0CF8-475B-833E-3A87A84F1A13}" type="CELLRANGE">
+                    <a:fld id="{664DC9A3-DCB8-4F96-A1CF-753E12A270AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3967,7 +3967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8673989C-FDF7-4857-8111-E5C22C8FA615}" type="CELLRANGE">
+                    <a:fld id="{717A0680-9E4F-4510-8189-0A3EE8558F3D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4005,7 +4005,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4CFDD021-A3BB-4E99-86A2-0CFB838B61C2}" type="CELLRANGE">
+                    <a:fld id="{537545FB-B9E6-4509-B131-1DC95A268A80}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4043,7 +4043,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C7B4E68-EDF6-484B-975C-851111F9D2AD}" type="CELLRANGE">
+                    <a:fld id="{28D18BAE-8A97-4E85-ACEA-2E981BD64FD8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4081,7 +4081,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14E93BA9-68B8-499F-B3F0-0001586810A5}" type="CELLRANGE">
+                    <a:fld id="{72163009-D5C6-42D1-BD57-06DC127F11EF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4119,7 +4119,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B2B4420-738D-40B1-9FD2-B219C2257616}" type="CELLRANGE">
+                    <a:fld id="{B8AAC689-5721-4F9F-8940-26EB801C483F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4157,7 +4157,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{91B09115-7979-4FB9-9963-532DAFFF263A}" type="CELLRANGE">
+                    <a:fld id="{13FC7B01-A4A5-4124-8ACB-B234F23AA6A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4195,7 +4195,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A63C935A-DE64-4D20-9D50-A82BD5F9E8D9}" type="CELLRANGE">
+                    <a:fld id="{FF43D85B-F3CC-4BF5-AD63-C0EAAEE5473A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4233,7 +4233,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A979593-44F6-4888-8969-543C64595990}" type="CELLRANGE">
+                    <a:fld id="{31ED5172-68E4-43AF-AD97-FEAAFCB69DF2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4265,7 +4265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AD4920FC-6E9A-425E-B5D7-9E06EC389CE2}" type="CELLRANGE">
+                    <a:fld id="{444D0563-AB9D-4479-9433-45F5E2769BCC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4304,7 +4304,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{55925663-1B24-412B-9167-CF74F3D5B2B5}" type="CELLRANGE">
+                    <a:fld id="{4F55827B-F0E0-4BFB-BB11-F6C6DE28721A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4342,7 +4342,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BA00AE51-A413-4164-9F4B-4F3FC237112D}" type="CELLRANGE">
+                    <a:fld id="{128EB7DE-A1C6-40DC-B67B-E1119EA7D50F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4380,7 +4380,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A38F58C3-5BB3-47A4-A375-67A4AB2D7997}" type="CELLRANGE">
+                    <a:fld id="{D09B6532-9C7A-4B1F-B35C-ED485D84FFC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4418,7 +4418,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{60F1E88F-F9CF-47D6-93E9-A6498EA03849}" type="CELLRANGE">
+                    <a:fld id="{BA83401D-C9AA-435B-AA51-CDE7DA9CF5D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4456,7 +4456,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B999C566-EAED-4A2A-875C-C41A7B1771E3}" type="CELLRANGE">
+                    <a:fld id="{398B2CF3-1098-4103-ADC3-A36648E28D14}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4488,7 +4488,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{11397579-66A0-465B-974A-54784B7A3DBE}" type="CELLRANGE">
+                    <a:fld id="{3FDC983F-17BD-4386-9112-B4C2CC1C14A9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4663,64 +4663,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>10.062366851896192</c:v>
+                  <c:v>10.09003359926383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0704022249431722</c:v>
+                  <c:v>7.0077624709856128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.088437484725137</c:v>
+                  <c:v>10.051726003065159</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.083389381495451</c:v>
+                  <c:v>10.044617713443943</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.078228867457744</c:v>
+                  <c:v>4.0446225986815376</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0775455718664371</c:v>
+                  <c:v>3.0529546459931258</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0770836291690338</c:v>
+                  <c:v>3.0445537929896189</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.0740592949502226</c:v>
+                  <c:v>7.0604063969538435</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0917492424358124</c:v>
+                  <c:v>3.055732442939818</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.030669750636223</c:v>
+                  <c:v>8.0427937552456079</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.015875374497709</c:v>
+                  <c:v>10.053014970857344</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0039732121794653</c:v>
+                  <c:v>3.0670186633823975</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.0185960276225829</c:v>
+                  <c:v>5.0309743583673079</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>11.033508011344486</c:v>
+                  <c:v>11.028504957760763</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.0576613728904318</c:v>
+                  <c:v>7.0349183244415157</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0721325895635267</c:v>
+                  <c:v>3.0590714701905948</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0028157291625162</c:v>
+                  <c:v>4.0478021540517339</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.08628279006758</c:v>
+                  <c:v>4.0303259914076914</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.006042994017182</c:v>
+                  <c:v>11.009915076404411</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10.035233933441081</c:v>
+                  <c:v>10.058919563840213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7706,6 +7706,10 @@
 </c:userShapes>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8040,118 +8044,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="14" t="s">
+      <c r="M1" s="16"/>
+      <c r="N1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="16"/>
+      <c r="P1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="14" t="s">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="14" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="14" t="s">
+      <c r="U1" s="16"/>
+      <c r="V1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="14" t="s">
+      <c r="W1" s="16"/>
+      <c r="X1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="14" t="s">
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="14" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="14" t="s">
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="15"/>
-      <c r="AF1" s="14" t="s">
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AG1" s="15"/>
-      <c r="AH1" s="14" t="s">
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" s="15"/>
-      <c r="AJ1" s="14" t="s">
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" s="15"/>
-      <c r="AL1" s="14" t="s">
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="15"/>
-      <c r="AN1" s="14" t="s">
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="14" t="s">
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="14" t="s">
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="14" t="s">
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="14" t="s">
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AW1" s="15"/>
-      <c r="AX1" s="14" t="s">
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AY1" s="15"/>
-      <c r="AZ1" s="14" t="s">
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="BA1" s="15"/>
-      <c r="BB1" s="14" t="s">
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="14" t="s">
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="BE1" s="15"/>
+      <c r="BE1" s="16"/>
     </row>
     <row r="2" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -44086,7 +44090,7 @@
       </c>
       <c r="H7">
         <f ca="1">G7+RAND()/10</f>
-        <v>10.062366851896192</v>
+        <v>10.09003359926383</v>
       </c>
       <c r="I7">
         <v>-13.75</v>
@@ -44116,7 +44120,7 @@
       </c>
       <c r="H8">
         <f t="shared" ref="H8:H26" ca="1" si="0">G8+RAND()/10</f>
-        <v>7.0704022249431722</v>
+        <v>7.0077624709856128</v>
       </c>
       <c r="I8">
         <v>-6.9519388214294304</v>
@@ -44146,7 +44150,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>10.088437484725137</v>
+        <v>10.051726003065159</v>
       </c>
       <c r="I9">
         <v>-16.1003236245955</v>
@@ -44176,7 +44180,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.083389381495451</v>
+        <v>10.044617713443943</v>
       </c>
       <c r="I10">
         <v>-10.390754310967401</v>
@@ -44206,7 +44210,7 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.078228867457744</v>
+        <v>4.0446225986815376</v>
       </c>
       <c r="I11">
         <v>-0.05</v>
@@ -44236,7 +44240,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0775455718664371</v>
+        <v>3.0529546459931258</v>
       </c>
       <c r="I12">
         <v>-3.9</v>
@@ -44266,7 +44270,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0770836291690338</v>
+        <v>3.0445537929896189</v>
       </c>
       <c r="I13">
         <v>-0.337541217</v>
@@ -44296,7 +44300,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0740592949502226</v>
+        <v>7.0604063969538435</v>
       </c>
       <c r="I14">
         <v>-7.4945861971565702</v>
@@ -44326,7 +44330,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0917492424358124</v>
+        <v>3.055732442939818</v>
       </c>
       <c r="I15">
         <v>-5.1049894047389701</v>
@@ -44356,7 +44360,7 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.030669750636223</v>
+        <v>8.0427937552456079</v>
       </c>
       <c r="I16">
         <v>-4.3581619438755297</v>
@@ -44386,7 +44390,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>10.015875374497709</v>
+        <v>10.053014970857344</v>
       </c>
       <c r="I17">
         <v>-9.3285133186062996</v>
@@ -44416,7 +44420,7 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0039732121794653</v>
+        <v>3.0670186633823975</v>
       </c>
       <c r="I18">
         <v>-0.4</v>
@@ -44446,7 +44450,7 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0185960276225829</v>
+        <v>5.0309743583673079</v>
       </c>
       <c r="I19">
         <v>-2.83</v>
@@ -44476,7 +44480,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>11.033508011344486</v>
+        <v>11.028504957760763</v>
       </c>
       <c r="I20">
         <v>-6.3</v>
@@ -44506,7 +44510,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0576613728904318</v>
+        <v>7.0349183244415157</v>
       </c>
       <c r="I21">
         <v>-3.21</v>
@@ -44536,7 +44540,7 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0721325895635267</v>
+        <v>3.0590714701905948</v>
       </c>
       <c r="I22">
         <v>-1.1000000000000001</v>
@@ -44566,7 +44570,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0028157291625162</v>
+        <v>4.0478021540517339</v>
       </c>
       <c r="I23">
         <v>-11</v>
@@ -44596,7 +44600,7 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="0"/>
-        <v>4.08628279006758</v>
+        <v>4.0303259914076914</v>
       </c>
       <c r="I24">
         <v>-10.0425531914894</v>
@@ -44626,7 +44630,7 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="0"/>
-        <v>11.006042994017182</v>
+        <v>11.009915076404411</v>
       </c>
       <c r="I25">
         <v>-31.1</v>
@@ -44656,7 +44660,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="0"/>
-        <v>10.035233933441081</v>
+        <v>10.058919563840213</v>
       </c>
       <c r="I26">
         <v>-6.2344139650872803</v>
@@ -44737,7 +44741,7 @@
       <c r="E31" t="s">
         <v>130</v>
       </c>
-      <c r="K31" s="16"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B32">
